--- a/database/sia/expdata/1005.xlsx
+++ b/database/sia/expdata/1005.xlsx
@@ -1,1174 +1,2350 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
-    <t xml:space="preserve">col</t>
+    <t>col</t>
   </si>
   <si>
-    <t xml:space="preserve">z1min</t>
+    <t>z1min</t>
   </si>
   <si>
-    <t xml:space="preserve">z1max</t>
+    <t>z1max</t>
   </si>
   <si>
-    <t xml:space="preserve">z2min</t>
+    <t>z2min</t>
   </si>
   <si>
-    <t xml:space="preserve">z2max</t>
+    <t>z2max</t>
   </si>
   <si>
-    <t xml:space="preserve">z1</t>
+    <t>z1</t>
   </si>
   <si>
-    <t xml:space="preserve">dz1</t>
+    <t>dz1</t>
   </si>
   <si>
-    <t xml:space="preserve">z2</t>
+    <t>z2</t>
   </si>
   <si>
-    <t xml:space="preserve">dz2</t>
+    <t>dz2</t>
   </si>
   <si>
-    <t xml:space="preserve">qT</t>
+    <t>qT</t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
+    <t>Q</t>
   </si>
   <si>
-    <t xml:space="preserve">dqT</t>
+    <t>dqT</t>
   </si>
   <si>
-    <t xml:space="preserve">S2/1+C2</t>
+    <t>S2/1+C2</t>
   </si>
   <si>
-    <t xml:space="preserve">dS2/1-C2</t>
+    <t>dS2/1-C2</t>
   </si>
   <si>
-    <t xml:space="preserve">obs</t>
+    <t>obs</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">stat_u</t>
+    <t>stat_u</t>
   </si>
   <si>
-    <t xml:space="preserve">sys_u</t>
+    <t>sys_u</t>
   </si>
   <si>
-    <t xml:space="preserve">belle</t>
+    <t>hadron1</t>
   </si>
   <si>
-    <t xml:space="preserve">AUL-0-PT-INT</t>
+    <t>Hadron2</t>
+  </si>
+  <si>
+    <t>belle</t>
+  </si>
+  <si>
+    <t>AUL-0-PT-INT</t>
+  </si>
+  <si>
+    <t>pi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R17"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="9.33"/>
+    <col min="1" max="1" width="5.67188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.67188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.67188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.67188" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.67188" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.35156" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.35156" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.35156" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.35156" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.35156" style="1" customWidth="1"/>
+    <col min="21" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="12" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="2" ht="12" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.2</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3">
         <v>0.3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="3">
         <v>0.2</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3">
         <v>0.3</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="3">
         <v>0.244</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="3">
         <v>0.0285</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="3">
         <v>0.244</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="3">
         <v>0.0284</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="3">
         <v>1.9905</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="3">
         <v>10.58</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="3">
         <v>0.8394</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="3">
         <v>0.7042</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="3">
         <v>0.2326</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="n">
+      <c r="O2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4">
         <v>0.38</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="4">
         <v>0.88</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="4">
         <v>0.26</v>
       </c>
+      <c r="S2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="n">
+    <row r="3" ht="12" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="3">
         <v>0.3</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="3">
         <v>0.244</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3">
         <v>0.0285</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="3">
         <v>0.377</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3">
         <v>0.0549</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="3">
         <v>1.8766</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="3">
         <v>10.58</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="3">
         <v>0.8304</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="3">
         <v>0.7078</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="3">
         <v>0.2298</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="2" t="n">
+      <c r="O3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4">
         <v>2.04</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="4">
         <v>0.47</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="4">
         <v>0.27</v>
       </c>
+      <c r="S3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="n">
+    <row r="4" ht="12" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.2</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="3">
         <v>0.3</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="3">
         <v>0.5</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="3">
         <v>0.7</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="3">
         <v>0.244</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="3">
         <v>0.0285</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="3">
         <v>0.575</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="3">
         <v>0.0551</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="3">
         <v>1.779</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="3">
         <v>10.58</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="3">
         <v>0.8163</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="3">
         <v>0.6966</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="3">
         <v>0.2304</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="2" t="n">
+      <c r="O4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P4" s="4">
         <v>2.58</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="4">
         <v>0.47</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="4">
         <v>0.29</v>
       </c>
+      <c r="S4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="n">
+    <row r="5" ht="12" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.2</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="3">
         <v>0.3</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="3">
         <v>0.7</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="3">
         <v>0.2442</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3">
         <v>0.0285</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="3">
         <v>0.7791</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3">
         <v>0.0602</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="3">
         <v>1.6989</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="3">
         <v>10.58</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="3">
         <v>0.7909</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>0.7011</v>
-      </c>
-      <c r="N5" s="1" t="n">
+      <c r="M5" s="3">
+        <v>0.7010999999999999</v>
+      </c>
+      <c r="N5" s="3">
         <v>0.228</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="2" t="n">
+      <c r="O5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P5" s="4">
         <v>4.14</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="R5" s="2" t="n">
+      <c r="Q5" s="4">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R5" s="4">
         <v>0.33</v>
       </c>
+      <c r="S5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="n">
+    <row r="6" ht="12" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
         <v>0.3</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="3">
         <v>0.2</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="3">
         <v>0.3</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="3">
         <v>0.3772</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="3">
         <v>0.0549</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="3">
         <v>0.244</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="3">
         <v>0.0285</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="3">
         <v>1.8819</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="3">
         <v>10.58</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="3">
         <v>0.8279</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="3">
         <v>0.7064</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="3">
         <v>0.2322</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="2" t="n">
+      <c r="O6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P6" s="4">
         <v>1.7</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="4">
         <v>0.47</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="4">
         <v>0.27</v>
       </c>
+      <c r="S6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="n">
+    <row r="7" ht="12" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
         <v>0.3</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="3">
         <v>0.5</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="3">
         <v>0.3</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="3">
         <v>0.3772</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3">
         <v>0.0551</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="3">
         <v>0.3773</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="3">
         <v>0.055</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="3">
         <v>1.6933</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="3">
         <v>10.58</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>0.8009</v>
-      </c>
-      <c r="M7" s="1" t="n">
+      <c r="L7" s="3">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="M7" s="3">
         <v>0.7101</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="3">
         <v>0.2289</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="2" t="n">
+      <c r="O7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4">
         <v>2.65</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="4">
         <v>0.42</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="4">
         <v>0.29</v>
       </c>
+      <c r="S7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="n">
+    <row r="8" ht="12" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
         <v>0.3</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="3">
         <v>0.5</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3">
         <v>0.5</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="3">
         <v>0.7</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="3">
         <v>0.3782</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="3">
         <v>0.0553</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="3">
         <v>0.576</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="3">
         <v>0.0552</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="3">
         <v>1.5344</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="3">
         <v>10.58</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="3">
         <v>0.7558</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="3">
         <v>0.6997</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="3">
         <v>0.2295</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="2" t="n">
+      <c r="O8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="4">
         <v>3.41</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="4">
         <v>0.52</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="4">
         <v>0.31</v>
       </c>
+      <c r="S8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="n">
+    <row r="9" ht="12" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.3</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="3">
         <v>0.5</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="3">
         <v>0.7</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="3">
         <v>0.379</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="3">
         <v>0.0557</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="3">
         <v>0.7781</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="3">
         <v>0.0603</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="3">
         <v>1.3853</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="3">
         <v>10.58</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="3">
         <v>0.7069</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="3">
         <v>0.7043</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="3">
         <v>0.2282</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="2" t="n">
+      <c r="O9" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="4">
         <v>6.3</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="4">
         <v>0.68</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="4">
         <v>0.41</v>
       </c>
+      <c r="S9" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="n">
+    <row r="10" ht="12" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.5</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="3">
         <v>0.7</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="3">
         <v>0.2</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="3">
         <v>0.3</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="3">
         <v>0.5752</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="3">
         <v>0.055</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="3">
         <v>0.2442</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="3">
         <v>0.0285</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="3">
         <v>1.7924</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="3">
         <v>10.58</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="3">
         <v>0.8107</v>
       </c>
-      <c r="M10" s="1" t="n">
-        <v>0.7001</v>
-      </c>
-      <c r="N10" s="1" t="n">
+      <c r="M10" s="3">
+        <v>0.7000999999999999</v>
+      </c>
+      <c r="N10" s="3">
         <v>0.2325</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="2" t="n">
+      <c r="O10" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P10" s="4">
         <v>2.62</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="4">
         <v>0.45</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="4">
         <v>0.29</v>
       </c>
+      <c r="S10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="n">
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.5</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="3">
         <v>0.7</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="3">
         <v>0.3</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="3">
         <v>0.5</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="3">
         <v>0.5756</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="3">
         <v>0.0551</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="3">
         <v>0.3778</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="3">
         <v>0.0553</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="3">
         <v>1.544</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="3">
         <v>10.58</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="3">
         <v>0.7579</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="3">
         <v>0.7045</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="3">
         <v>0.2296</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="2" t="n">
+      <c r="O11" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P11" s="4">
         <v>3.49</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="4">
         <v>0.48</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="4">
         <v>0.31</v>
       </c>
+      <c r="S11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="n">
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
         <v>0.5</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="3">
         <v>0.7</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3">
         <v>0.5</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="3">
         <v>0.7</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="3">
         <v>0.5775</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="3">
         <v>0.0557</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>0.5761</v>
-      </c>
-      <c r="I12" s="1" t="n">
+      <c r="H12" s="3">
+        <v>0.5760999999999999</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.055</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="3">
         <v>1.3327</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="3">
         <v>10.58</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="3">
         <v>0.6822</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="3">
         <v>0.6935</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="3">
         <v>0.2309</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="2" t="n">
+      <c r="O12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P12" s="4">
         <v>4.12</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="4">
         <v>0.76</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="R12" s="4">
         <v>0.33</v>
       </c>
+      <c r="S12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="n">
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.5</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="3">
         <v>0.7</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="3">
         <v>0.7</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>0.5781</v>
-      </c>
-      <c r="G13" s="1" t="n">
+      <c r="F13" s="3">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.0553</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="3">
         <v>0.7803</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="3">
         <v>0.0614</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="3">
         <v>1.1561</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="3">
         <v>10.58</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="3">
         <v>0.5968</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="3">
         <v>0.6973</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="3">
         <v>0.2262</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="2" t="n">
+      <c r="O13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P13" s="4">
         <v>10.69</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="4">
         <v>1.29</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="4">
         <v>0.59</v>
       </c>
+      <c r="S13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="n">
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
         <v>0.7</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="3">
         <v>0.2</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="3">
         <v>0.3</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="3">
         <v>0.778</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="3">
         <v>0.06</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="3">
         <v>0.244</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="3">
         <v>0.0286</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="3">
         <v>1.7242</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="3">
         <v>10.58</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="3">
         <v>0.789</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="3">
         <v>0.7045</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="3">
         <v>0.2322</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="2" t="n">
+      <c r="O14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P14" s="4">
         <v>3.35</v>
       </c>
-      <c r="Q14" s="2" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="R14" s="2" t="n">
+      <c r="Q14" s="4">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R14" s="4">
         <v>0.31</v>
       </c>
+      <c r="S14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="n">
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
         <v>0.7</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="3">
         <v>0.3</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="3">
         <v>0.5</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>0.7787</v>
-      </c>
-      <c r="G15" s="1" t="n">
+      <c r="F15" s="3">
+        <v>0.7786999999999999</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.0598</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="3">
         <v>0.3788</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="3">
         <v>0.0555</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="3">
         <v>1.399</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="3">
         <v>10.58</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <v>0.7102</v>
-      </c>
-      <c r="M15" s="1" t="n">
+      <c r="L15" s="3">
+        <v>0.7102000000000001</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.7028</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="3">
         <v>0.2305</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="2" t="n">
+      <c r="O15" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P15" s="4">
         <v>5.24</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="4">
         <v>0.78</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" s="4">
         <v>0.37</v>
       </c>
+      <c r="S15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="n">
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
         <v>0.7</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="3">
         <v>0.5</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="3">
         <v>0.7</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="3">
         <v>0.7806</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="3">
         <v>0.061</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="3">
         <v>0.5767</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="3">
         <v>0.0558</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="3">
         <v>1.1481</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="3">
         <v>10.58</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="3">
         <v>0.592</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="3">
         <v>0.7007</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="3">
         <v>0.2297</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="2" t="n">
+      <c r="O16" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P16" s="4">
         <v>7.84</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="4">
         <v>1.33</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="4">
         <v>0.47</v>
       </c>
+      <c r="S16" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="n">
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.7</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="3">
         <v>0.7</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="3">
         <v>0.7832</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="3">
         <v>0.062</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="3">
         <v>0.7801</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="3">
         <v>0.0623</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="3">
         <v>0.9413</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="3">
         <v>10.58</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="3">
         <v>0.4789</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="3">
         <v>0.7048</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="3">
         <v>0.2271</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="2" t="n">
+      <c r="O17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="P17" s="4">
         <v>15.25</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="4">
         <v>3.82</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" s="4">
         <v>0.86</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/database/sia/expdata/1005.xlsx
+++ b/database/sia/expdata/1005.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sia/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27620" windowHeight="18660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>col</t>
   </si>
@@ -70,9 +86,6 @@
     <t>hadron1</t>
   </si>
   <si>
-    <t>Hadron2</t>
-  </si>
-  <si>
     <t>belle</t>
   </si>
   <si>
@@ -81,27 +94,17 @@
   <si>
     <t>pi</t>
   </si>
+  <si>
+    <t>hadron2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -145,52 +148,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -322,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -398,7 +448,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -417,7 +467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -447,7 +497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -473,7 +523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -499,7 +549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -525,7 +575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -551,7 +601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -577,7 +627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -603,7 +653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -629,7 +679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,9 +718,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -685,7 +741,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -693,7 +749,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -712,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -738,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -764,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,9 +1015,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -975,7 +1037,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -994,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,1104 +1307,1101 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.67188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="5.6640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="12" width="8" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8" style="5" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.35156" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.35156" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.35156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.35156" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.35156" style="1" customWidth="1"/>
-    <col min="21" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="16" max="20" width="9.33203125" style="1" customWidth="1"/>
+    <col min="21" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.9904999999999999</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.70420000000000005</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.2326</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="12" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="3" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.377</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.8766</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.2298</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="P3" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C4" s="4">
         <v>0.3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.6966</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="C5" s="4">
         <v>0.3</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.0285</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.0284</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1.9905</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="D5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2442</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.6989000000000001</v>
+      </c>
+      <c r="K5" s="4">
         <v>10.58</v>
       </c>
-      <c r="L2" s="3">
-        <v>0.8394</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.7042</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.2326</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>22</v>
+      <c r="L5" s="4">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="12" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="6" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.8818999999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
+      <c r="P6" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.6933</v>
+      </c>
+      <c r="K7" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.5344</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.379</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.57E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.3853</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.70430000000000004</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="4">
         <v>0.2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E10" s="4">
         <v>0.3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F10" s="4">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.2442</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.7924</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E11" s="4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.0285</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.377</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.0549</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.8766</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="F11" s="4">
+        <v>0.5756</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.544</v>
+      </c>
+      <c r="K11" s="4">
         <v>10.58</v>
       </c>
-      <c r="L3" s="3">
-        <v>0.8304</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.7078</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.2298</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="L11" s="4">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.2296</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3.49</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5.57E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.3327</v>
+      </c>
+      <c r="K12" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.1560999999999999</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.5968</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="3">
+        <v>10.69</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.86E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.7242</v>
+      </c>
+      <c r="K14" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.399</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.71020000000000005</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="3">
+        <v>5.24</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.1480999999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="R16" s="3">
         <v>0.47</v>
       </c>
-      <c r="R3" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>22</v>
+      <c r="S16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="17" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="K17" s="4">
+        <v>10.58</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.2271</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.0285</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.575</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.0551</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.779</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.8163</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.6966</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.2304</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P4" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0.29</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.2442</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.0285</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.7791</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.0602</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.6989</v>
-      </c>
-      <c r="K5" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.7909</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.7010999999999999</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.228</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P5" s="4">
-        <v>4.14</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.3772</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.0549</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.0285</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.8819</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.8279</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.7064</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.2322</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.3772</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.0551</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.3773</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.055</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.6933</v>
-      </c>
-      <c r="K7" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.8008999999999999</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.7101</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.2289</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P7" s="4">
-        <v>2.65</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.29</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.3782</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.0553</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.576</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.0552</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.5344</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.7558</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.6997</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.2295</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.379</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.0557</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.7781</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.0603</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.3853</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.7069</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.7043</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.2282</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P9" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.5752</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.055</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.2442</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.0285</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1.7924</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.8107</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.7000999999999999</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.2325</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P10" s="4">
-        <v>2.62</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0.29</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.5756</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.0551</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.3778</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.0553</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1.544</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.7579</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.7045</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.2296</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P11" s="4">
-        <v>3.49</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.5775</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.0557</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.5760999999999999</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.055</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1.3327</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.6822</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.6935</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.2309</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P12" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.5780999999999999</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.0553</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.7803</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.0614</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.1561</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.5968</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.6973</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.2262</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P13" s="4">
-        <v>10.69</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.778</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.244</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.0286</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.7242</v>
-      </c>
-      <c r="K14" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.789</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.7045</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.2322</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P14" s="4">
-        <v>3.35</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.7786999999999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.0598</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.3788</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.0555</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1.399</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.7102000000000001</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.7028</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.2305</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5.24</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.7806</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.061</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.5767</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.0558</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.1481</v>
-      </c>
-      <c r="K16" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.592</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.7007</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.2297</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P16" s="4">
-        <v>7.84</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.7832</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.062</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.7801</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.0623</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.9413</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10.58</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.4789</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.7048</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.2271</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>15.25</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>3.82</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>0.86</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>22</v>
+      <c r="S17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
